--- a/16/dados.xlsx
+++ b/16/dados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/933465f943bcf0f7/Conteudo Docente/Pós Lato Sensu/Programação Avançada/IDASE/16/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{780AA8C6-BB46-41B7-9815-64BE3D1B8451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{780AA8C6-BB46-41B7-9815-64BE3D1B8451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C5D4AFB-87DE-483A-8701-FA4CA7139462}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1005,14 +1005,14 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
